--- a/Codes/SOE+Prices+MP+Datos/Datos/Raw data/GDPC1.xlsx
+++ b/Codes/SOE+Prices+MP+Datos/Datos/Raw data/GDPC1.xlsx
@@ -32,7 +32,7 @@
     <t>This data may be copyrighted. Please refer to the Terms of Use: https://fred.stlouisfed.org/legal#fred-terms-faq</t>
   </si>
   <si>
-    <t>File Created: 2025-08-04 3:01 pm CDT</t>
+    <t>File Created: 2025-08-04 7:21 pm CDT</t>
   </si>
   <si>
     <t>GDPC1</t>
@@ -470,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B103"/>
+  <dimension ref="A1:B195"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -490,817 +490,1553 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4">
-        <v>36526</v>
+        <v>28126</v>
       </c>
       <c r="B2" s="2">
-        <v>13878.147</v>
+        <v>6527.703</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4">
-        <v>36617</v>
+        <v>28216</v>
       </c>
       <c r="B3" s="2">
-        <v>14130.908</v>
+        <v>6654.466</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4">
-        <v>36708</v>
+        <v>28307</v>
       </c>
       <c r="B4" s="2">
-        <v>14145.312</v>
+        <v>6774.457</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4">
-        <v>36800</v>
+        <v>28399</v>
       </c>
       <c r="B5" s="2">
-        <v>14229.765</v>
+        <v>6774.592</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4">
-        <v>36892</v>
+        <v>28491</v>
       </c>
       <c r="B6" s="2">
-        <v>14183.12</v>
+        <v>6796.26</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4">
-        <v>36982</v>
+        <v>28581</v>
       </c>
       <c r="B7" s="2">
-        <v>14271.694</v>
+        <v>7058.92</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4">
-        <v>37073</v>
+        <v>28672</v>
       </c>
       <c r="B8" s="2">
-        <v>14214.516</v>
+        <v>7129.915</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4">
-        <v>37165</v>
+        <v>28764</v>
       </c>
       <c r="B9" s="2">
-        <v>14253.574</v>
+        <v>7225.75</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4">
-        <v>37257</v>
+        <v>28856</v>
       </c>
       <c r="B10" s="2">
-        <v>14372.785</v>
+        <v>7238.727</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4">
-        <v>37347</v>
+        <v>28946</v>
       </c>
       <c r="B11" s="2">
-        <v>14460.848</v>
+        <v>7246.454</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="4">
-        <v>37438</v>
+        <v>29037</v>
       </c>
       <c r="B12" s="2">
-        <v>14519.633</v>
+        <v>7300.281</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="4">
-        <v>37530</v>
+        <v>29129</v>
       </c>
       <c r="B13" s="2">
-        <v>14537.58</v>
+        <v>7318.535</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="4">
-        <v>37622</v>
+        <v>29221</v>
       </c>
       <c r="B14" s="2">
-        <v>14614.141</v>
+        <v>7341.557</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="4">
-        <v>37712</v>
+        <v>29312</v>
       </c>
       <c r="B15" s="2">
-        <v>14743.567</v>
+        <v>7190.289</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="4">
-        <v>37803</v>
+        <v>29403</v>
       </c>
       <c r="B16" s="2">
-        <v>14988.782</v>
+        <v>7181.743</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="4">
-        <v>37895</v>
+        <v>29495</v>
       </c>
       <c r="B17" s="2">
-        <v>15162.76</v>
+        <v>7315.677</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="4">
-        <v>37987</v>
+        <v>29587</v>
       </c>
       <c r="B18" s="2">
-        <v>15248.68</v>
+        <v>7459.022</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="4">
-        <v>38078</v>
+        <v>29677</v>
       </c>
       <c r="B19" s="2">
-        <v>15366.85</v>
+        <v>7403.745</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="4">
-        <v>38169</v>
+        <v>29768</v>
       </c>
       <c r="B20" s="2">
-        <v>15512.619</v>
+        <v>7492.405</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="4">
-        <v>38261</v>
+        <v>29860</v>
       </c>
       <c r="B21" s="2">
-        <v>15670.88</v>
+        <v>7410.768</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="4">
-        <v>38353</v>
+        <v>29952</v>
       </c>
       <c r="B22" s="2">
-        <v>15844.727</v>
+        <v>7295.631</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="4">
-        <v>38443</v>
+        <v>30042</v>
       </c>
       <c r="B23" s="2">
-        <v>15922.782</v>
+        <v>7328.912</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="4">
-        <v>38534</v>
+        <v>30133</v>
       </c>
       <c r="B24" s="2">
-        <v>16047.587</v>
+        <v>7300.896</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="4">
-        <v>38626</v>
+        <v>30225</v>
       </c>
       <c r="B25" s="2">
-        <v>16136.734</v>
+        <v>7303.817</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="4">
-        <v>38718</v>
+        <v>30317</v>
       </c>
       <c r="B26" s="2">
-        <v>16353.835</v>
+        <v>7400.066</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="4">
-        <v>38808</v>
+        <v>30407</v>
       </c>
       <c r="B27" s="2">
-        <v>16396.151</v>
+        <v>7568.456</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4">
-        <v>38899</v>
+        <v>30498</v>
       </c>
       <c r="B28" s="2">
-        <v>16420.738</v>
+        <v>7719.746</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="4">
-        <v>38991</v>
+        <v>30590</v>
       </c>
       <c r="B29" s="2">
-        <v>16561.866</v>
+        <v>7880.794</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="4">
-        <v>39083</v>
+        <v>30682</v>
       </c>
       <c r="B30" s="2">
-        <v>16611.69</v>
+        <v>8034.847</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="4">
-        <v>39173</v>
+        <v>30773</v>
       </c>
       <c r="B31" s="2">
-        <v>16713.314</v>
+        <v>8173.67</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="4">
-        <v>39264</v>
+        <v>30864</v>
       </c>
       <c r="B32" s="2">
-        <v>16809.587</v>
+        <v>8252.465</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="4">
-        <v>39356</v>
+        <v>30956</v>
       </c>
       <c r="B33" s="2">
-        <v>16915.191</v>
+        <v>8320.199000000001</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="4">
-        <v>39448</v>
+        <v>31048</v>
       </c>
       <c r="B34" s="2">
-        <v>16843.003</v>
+        <v>8400.82</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="4">
-        <v>39539</v>
+        <v>31138</v>
       </c>
       <c r="B35" s="2">
-        <v>16943.291</v>
+        <v>8474.787</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="4">
-        <v>39630</v>
+        <v>31229</v>
       </c>
       <c r="B36" s="2">
-        <v>16854.295</v>
+        <v>8604.219999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="4">
-        <v>39722</v>
+        <v>31321</v>
       </c>
       <c r="B37" s="2">
-        <v>16485.35</v>
+        <v>8668.188</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="4">
-        <v>39814</v>
+        <v>31413</v>
       </c>
       <c r="B38" s="2">
-        <v>16298.262</v>
+        <v>8749.127</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="4">
-        <v>39904</v>
+        <v>31503</v>
       </c>
       <c r="B39" s="2">
-        <v>16269.145</v>
+        <v>8788.523999999999</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="4">
-        <v>39995</v>
+        <v>31594</v>
       </c>
       <c r="B40" s="2">
-        <v>16326.281</v>
+        <v>8872.601000000001</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="4">
-        <v>40087</v>
+        <v>31686</v>
       </c>
       <c r="B41" s="2">
-        <v>16502.754</v>
+        <v>8920.192999999999</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="4">
-        <v>40179</v>
+        <v>31778</v>
       </c>
       <c r="B42" s="2">
-        <v>16582.71</v>
+        <v>8986.367</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="4">
-        <v>40269</v>
+        <v>31868</v>
       </c>
       <c r="B43" s="2">
-        <v>16743.162</v>
+        <v>9083.255999999999</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="4">
-        <v>40360</v>
+        <v>31959</v>
       </c>
       <c r="B44" s="2">
-        <v>16872.266</v>
+        <v>9162.023999999999</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="4">
-        <v>40452</v>
+        <v>32051</v>
       </c>
       <c r="B45" s="2">
-        <v>16960.864</v>
+        <v>9319.332</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="4">
-        <v>40544</v>
+        <v>32143</v>
       </c>
       <c r="B46" s="2">
-        <v>16920.632</v>
+        <v>9367.502</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="4">
-        <v>40634</v>
+        <v>32234</v>
       </c>
       <c r="B47" s="2">
-        <v>17035.114</v>
+        <v>9490.593999999999</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="4">
-        <v>40725</v>
+        <v>32325</v>
       </c>
       <c r="B48" s="2">
-        <v>17031.313</v>
+        <v>9546.206</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="4">
-        <v>40817</v>
+        <v>32417</v>
       </c>
       <c r="B49" s="2">
-        <v>17222.583</v>
+        <v>9673.405000000001</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="4">
-        <v>40909</v>
+        <v>32509</v>
       </c>
       <c r="B50" s="2">
-        <v>17367.01</v>
+        <v>9771.725</v>
       </c>
     </row>
     <row r="51" spans="1:2">
       <c r="A51" s="4">
-        <v>41000</v>
+        <v>32599</v>
       </c>
       <c r="B51" s="2">
-        <v>17444.525</v>
+        <v>9846.293</v>
       </c>
     </row>
     <row r="52" spans="1:2">
       <c r="A52" s="4">
-        <v>41091</v>
+        <v>32690</v>
       </c>
       <c r="B52" s="2">
-        <v>17469.65</v>
+        <v>9919.227999999999</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53" s="4">
-        <v>41183</v>
+        <v>32782</v>
       </c>
       <c r="B53" s="2">
-        <v>17489.852</v>
+        <v>9938.767</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="4">
-        <v>41275</v>
+        <v>32874</v>
       </c>
       <c r="B54" s="2">
-        <v>17662.4</v>
+        <v>10047.386</v>
       </c>
     </row>
     <row r="55" spans="1:2">
       <c r="A55" s="4">
-        <v>41365</v>
+        <v>32964</v>
       </c>
       <c r="B55" s="2">
-        <v>17709.671</v>
+        <v>10083.855</v>
       </c>
     </row>
     <row r="56" spans="1:2">
       <c r="A56" s="4">
-        <v>41456</v>
+        <v>33055</v>
       </c>
       <c r="B56" s="2">
-        <v>17860.45</v>
+        <v>10090.569</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57" s="4">
-        <v>41548</v>
+        <v>33147</v>
       </c>
       <c r="B57" s="2">
-        <v>18016.147</v>
+        <v>9998.704</v>
       </c>
     </row>
     <row r="58" spans="1:2">
       <c r="A58" s="4">
-        <v>41640</v>
+        <v>33239</v>
       </c>
       <c r="B58" s="2">
-        <v>17953.974</v>
+        <v>9951.915999999999</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="4">
-        <v>41730</v>
+        <v>33329</v>
       </c>
       <c r="B59" s="2">
-        <v>18185.911</v>
+        <v>10029.51</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="4">
-        <v>41821</v>
+        <v>33420</v>
       </c>
       <c r="B60" s="2">
-        <v>18406.941</v>
+        <v>10080.195</v>
       </c>
     </row>
     <row r="61" spans="1:2">
       <c r="A61" s="4">
-        <v>41913</v>
+        <v>33512</v>
       </c>
       <c r="B61" s="2">
-        <v>18500.031</v>
+        <v>10115.329</v>
       </c>
     </row>
     <row r="62" spans="1:2">
       <c r="A62" s="4">
-        <v>42005</v>
+        <v>33604</v>
       </c>
       <c r="B62" s="2">
-        <v>18666.621</v>
+        <v>10236.435</v>
       </c>
     </row>
     <row r="63" spans="1:2">
       <c r="A63" s="4">
-        <v>42095</v>
+        <v>33695</v>
       </c>
       <c r="B63" s="2">
-        <v>18782.243</v>
+        <v>10347.429</v>
       </c>
     </row>
     <row r="64" spans="1:2">
       <c r="A64" s="4">
-        <v>42186</v>
+        <v>33786</v>
       </c>
       <c r="B64" s="2">
-        <v>18857.418</v>
+        <v>10449.673</v>
       </c>
     </row>
     <row r="65" spans="1:2">
       <c r="A65" s="4">
-        <v>42278</v>
+        <v>33878</v>
       </c>
       <c r="B65" s="2">
-        <v>18892.206</v>
+        <v>10558.648</v>
       </c>
     </row>
     <row r="66" spans="1:2">
       <c r="A66" s="4">
-        <v>42370</v>
+        <v>33970</v>
       </c>
       <c r="B66" s="2">
-        <v>19001.69</v>
+        <v>10576.275</v>
       </c>
     </row>
     <row r="67" spans="1:2">
       <c r="A67" s="4">
-        <v>42461</v>
+        <v>34060</v>
       </c>
       <c r="B67" s="2">
-        <v>19062.709</v>
+        <v>10637.847</v>
       </c>
     </row>
     <row r="68" spans="1:2">
       <c r="A68" s="4">
-        <v>42552</v>
+        <v>34151</v>
       </c>
       <c r="B68" s="2">
-        <v>19197.938</v>
+        <v>10688.606</v>
       </c>
     </row>
     <row r="69" spans="1:2">
       <c r="A69" s="4">
-        <v>42644</v>
+        <v>34243</v>
       </c>
       <c r="B69" s="2">
-        <v>19304.352</v>
+        <v>10833.987</v>
       </c>
     </row>
     <row r="70" spans="1:2">
       <c r="A70" s="4">
-        <v>42736</v>
+        <v>34335</v>
       </c>
       <c r="B70" s="2">
-        <v>19398.343</v>
+        <v>10939.116</v>
       </c>
     </row>
     <row r="71" spans="1:2">
       <c r="A71" s="4">
-        <v>42826</v>
+        <v>34425</v>
       </c>
       <c r="B71" s="2">
-        <v>19506.949</v>
+        <v>11087.361</v>
       </c>
     </row>
     <row r="72" spans="1:2">
       <c r="A72" s="4">
-        <v>42917</v>
+        <v>34516</v>
       </c>
       <c r="B72" s="2">
-        <v>19660.766</v>
+        <v>11152.176</v>
       </c>
     </row>
     <row r="73" spans="1:2">
       <c r="A73" s="4">
-        <v>43009</v>
+        <v>34608</v>
       </c>
       <c r="B73" s="2">
-        <v>19882.352</v>
+        <v>11279.932</v>
       </c>
     </row>
     <row r="74" spans="1:2">
       <c r="A74" s="4">
-        <v>43101</v>
+        <v>34700</v>
       </c>
       <c r="B74" s="2">
-        <v>20044.077</v>
+        <v>11319.951</v>
       </c>
     </row>
     <row r="75" spans="1:2">
       <c r="A75" s="4">
-        <v>43191</v>
+        <v>34790</v>
       </c>
       <c r="B75" s="2">
-        <v>20150.476</v>
+        <v>11353.721</v>
       </c>
     </row>
     <row r="76" spans="1:2">
       <c r="A76" s="4">
-        <v>43282</v>
+        <v>34881</v>
       </c>
       <c r="B76" s="2">
-        <v>20276.154</v>
+        <v>11450.31</v>
       </c>
     </row>
     <row r="77" spans="1:2">
       <c r="A77" s="4">
-        <v>43374</v>
+        <v>34973</v>
       </c>
       <c r="B77" s="2">
-        <v>20304.874</v>
+        <v>11528.067</v>
       </c>
     </row>
     <row r="78" spans="1:2">
       <c r="A78" s="4">
-        <v>43466</v>
+        <v>35065</v>
       </c>
       <c r="B78" s="2">
-        <v>20431.641</v>
+        <v>11614.418</v>
       </c>
     </row>
     <row r="79" spans="1:2">
       <c r="A79" s="4">
-        <v>43556</v>
+        <v>35156</v>
       </c>
       <c r="B79" s="2">
-        <v>20602.275</v>
+        <v>11808.14</v>
       </c>
     </row>
     <row r="80" spans="1:2">
       <c r="A80" s="4">
-        <v>43647</v>
+        <v>35247</v>
       </c>
       <c r="B80" s="2">
-        <v>20843.322</v>
+        <v>11914.063</v>
       </c>
     </row>
     <row r="81" spans="1:2">
       <c r="A81" s="4">
-        <v>43739</v>
+        <v>35339</v>
       </c>
       <c r="B81" s="2">
-        <v>20985.448</v>
+        <v>12037.775</v>
       </c>
     </row>
     <row r="82" spans="1:2">
       <c r="A82" s="4">
-        <v>43831</v>
+        <v>35431</v>
       </c>
       <c r="B82" s="2">
-        <v>20693.238</v>
+        <v>12115.472</v>
       </c>
     </row>
     <row r="83" spans="1:2">
       <c r="A83" s="4">
-        <v>43922</v>
+        <v>35521</v>
       </c>
       <c r="B83" s="2">
-        <v>19056.617</v>
+        <v>12317.221</v>
       </c>
     </row>
     <row r="84" spans="1:2">
       <c r="A84" s="4">
-        <v>44013</v>
+        <v>35612</v>
       </c>
       <c r="B84" s="2">
-        <v>20548.793</v>
+        <v>12471.01</v>
       </c>
     </row>
     <row r="85" spans="1:2">
       <c r="A85" s="4">
-        <v>44105</v>
+        <v>35704</v>
       </c>
       <c r="B85" s="2">
-        <v>20771.691</v>
+        <v>12577.495</v>
       </c>
     </row>
     <row r="86" spans="1:2">
       <c r="A86" s="4">
-        <v>44197</v>
+        <v>35796</v>
       </c>
       <c r="B86" s="2">
-        <v>21058.379</v>
+        <v>12703.742</v>
       </c>
     </row>
     <row r="87" spans="1:2">
       <c r="A87" s="4">
-        <v>44287</v>
+        <v>35886</v>
       </c>
       <c r="B87" s="2">
-        <v>21389.005</v>
+        <v>12821.339</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="4">
-        <v>44378</v>
+        <v>35977</v>
       </c>
       <c r="B88" s="2">
-        <v>21571.421</v>
+        <v>12982.752</v>
       </c>
     </row>
     <row r="89" spans="1:2">
       <c r="A89" s="4">
-        <v>44470</v>
+        <v>36069</v>
       </c>
       <c r="B89" s="2">
-        <v>21960.388</v>
+        <v>13191.67</v>
       </c>
     </row>
     <row r="90" spans="1:2">
       <c r="A90" s="4">
-        <v>44562</v>
+        <v>36161</v>
       </c>
       <c r="B90" s="2">
-        <v>21903.85</v>
+        <v>13315.597</v>
       </c>
     </row>
     <row r="91" spans="1:2">
       <c r="A91" s="4">
-        <v>44652</v>
+        <v>36251</v>
       </c>
       <c r="B91" s="2">
-        <v>21919.222</v>
+        <v>13426.748</v>
       </c>
     </row>
     <row r="92" spans="1:2">
       <c r="A92" s="4">
-        <v>44743</v>
+        <v>36342</v>
       </c>
       <c r="B92" s="2">
-        <v>22066.784</v>
+        <v>13604.771</v>
       </c>
     </row>
     <row r="93" spans="1:2">
       <c r="A93" s="4">
-        <v>44835</v>
+        <v>36434</v>
       </c>
       <c r="B93" s="2">
-        <v>22249.459</v>
+        <v>13827.98</v>
       </c>
     </row>
     <row r="94" spans="1:2">
       <c r="A94" s="4">
-        <v>44927</v>
+        <v>36526</v>
       </c>
       <c r="B94" s="2">
-        <v>22403.435</v>
+        <v>13878.147</v>
       </c>
     </row>
     <row r="95" spans="1:2">
       <c r="A95" s="4">
-        <v>45017</v>
+        <v>36617</v>
       </c>
       <c r="B95" s="2">
-        <v>22539.418</v>
+        <v>14130.908</v>
       </c>
     </row>
     <row r="96" spans="1:2">
       <c r="A96" s="4">
-        <v>45108</v>
+        <v>36708</v>
       </c>
       <c r="B96" s="2">
-        <v>22780.933</v>
+        <v>14145.312</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4">
-        <v>45200</v>
+        <v>36800</v>
       </c>
       <c r="B97" s="2">
-        <v>22960.6</v>
+        <v>14229.765</v>
       </c>
     </row>
     <row r="98" spans="1:2">
       <c r="A98" s="4">
-        <v>45292</v>
+        <v>36892</v>
       </c>
       <c r="B98" s="2">
-        <v>23053.545</v>
+        <v>14183.12</v>
       </c>
     </row>
     <row r="99" spans="1:2">
       <c r="A99" s="4">
-        <v>45383</v>
+        <v>36982</v>
       </c>
       <c r="B99" s="2">
-        <v>23223.906</v>
+        <v>14271.694</v>
       </c>
     </row>
     <row r="100" spans="1:2">
       <c r="A100" s="4">
-        <v>45474</v>
+        <v>37073</v>
       </c>
       <c r="B100" s="2">
-        <v>23400.294</v>
+        <v>14214.516</v>
       </c>
     </row>
     <row r="101" spans="1:2">
       <c r="A101" s="4">
-        <v>45566</v>
+        <v>37165</v>
       </c>
       <c r="B101" s="2">
-        <v>23542.349</v>
+        <v>14253.574</v>
       </c>
     </row>
     <row r="102" spans="1:2">
       <c r="A102" s="4">
-        <v>45658</v>
+        <v>37257</v>
       </c>
       <c r="B102" s="2">
-        <v>23512.717</v>
+        <v>14372.785</v>
       </c>
     </row>
     <row r="103" spans="1:2">
       <c r="A103" s="4">
+        <v>37347</v>
+      </c>
+      <c r="B103" s="2">
+        <v>14460.848</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" s="4">
+        <v>37438</v>
+      </c>
+      <c r="B104" s="2">
+        <v>14519.633</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" s="4">
+        <v>37530</v>
+      </c>
+      <c r="B105" s="2">
+        <v>14537.58</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" s="4">
+        <v>37622</v>
+      </c>
+      <c r="B106" s="2">
+        <v>14614.141</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" s="4">
+        <v>37712</v>
+      </c>
+      <c r="B107" s="2">
+        <v>14743.567</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="4">
+        <v>37803</v>
+      </c>
+      <c r="B108" s="2">
+        <v>14988.782</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4">
+        <v>37895</v>
+      </c>
+      <c r="B109" s="2">
+        <v>15162.76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" s="4">
+        <v>37987</v>
+      </c>
+      <c r="B110" s="2">
+        <v>15248.68</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" s="4">
+        <v>38078</v>
+      </c>
+      <c r="B111" s="2">
+        <v>15366.85</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" s="4">
+        <v>38169</v>
+      </c>
+      <c r="B112" s="2">
+        <v>15512.619</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="4">
+        <v>38261</v>
+      </c>
+      <c r="B113" s="2">
+        <v>15670.88</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" s="4">
+        <v>38353</v>
+      </c>
+      <c r="B114" s="2">
+        <v>15844.727</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
+      <c r="A115" s="4">
+        <v>38443</v>
+      </c>
+      <c r="B115" s="2">
+        <v>15922.782</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
+      <c r="A116" s="4">
+        <v>38534</v>
+      </c>
+      <c r="B116" s="2">
+        <v>16047.587</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
+      <c r="A117" s="4">
+        <v>38626</v>
+      </c>
+      <c r="B117" s="2">
+        <v>16136.734</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="4">
+        <v>38718</v>
+      </c>
+      <c r="B118" s="2">
+        <v>16353.835</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
+      <c r="A119" s="4">
+        <v>38808</v>
+      </c>
+      <c r="B119" s="2">
+        <v>16396.151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
+      <c r="A120" s="4">
+        <v>38899</v>
+      </c>
+      <c r="B120" s="2">
+        <v>16420.738</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
+      <c r="A121" s="4">
+        <v>38991</v>
+      </c>
+      <c r="B121" s="2">
+        <v>16561.866</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
+      <c r="A122" s="4">
+        <v>39083</v>
+      </c>
+      <c r="B122" s="2">
+        <v>16611.69</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
+      <c r="A123" s="4">
+        <v>39173</v>
+      </c>
+      <c r="B123" s="2">
+        <v>16713.314</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="4">
+        <v>39264</v>
+      </c>
+      <c r="B124" s="2">
+        <v>16809.587</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
+      <c r="A125" s="4">
+        <v>39356</v>
+      </c>
+      <c r="B125" s="2">
+        <v>16915.191</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
+      <c r="A126" s="4">
+        <v>39448</v>
+      </c>
+      <c r="B126" s="2">
+        <v>16843.003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
+      <c r="A127" s="4">
+        <v>39539</v>
+      </c>
+      <c r="B127" s="2">
+        <v>16943.291</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
+      <c r="A128" s="4">
+        <v>39630</v>
+      </c>
+      <c r="B128" s="2">
+        <v>16854.295</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="4">
+        <v>39722</v>
+      </c>
+      <c r="B129" s="2">
+        <v>16485.35</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
+      <c r="A130" s="4">
+        <v>39814</v>
+      </c>
+      <c r="B130" s="2">
+        <v>16298.262</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
+      <c r="A131" s="4">
+        <v>39904</v>
+      </c>
+      <c r="B131" s="2">
+        <v>16269.145</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
+      <c r="A132" s="4">
+        <v>39995</v>
+      </c>
+      <c r="B132" s="2">
+        <v>16326.281</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
+      <c r="A133" s="4">
+        <v>40087</v>
+      </c>
+      <c r="B133" s="2">
+        <v>16502.754</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="4">
+        <v>40179</v>
+      </c>
+      <c r="B134" s="2">
+        <v>16582.71</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
+      <c r="A135" s="4">
+        <v>40269</v>
+      </c>
+      <c r="B135" s="2">
+        <v>16743.162</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
+      <c r="A136" s="4">
+        <v>40360</v>
+      </c>
+      <c r="B136" s="2">
+        <v>16872.266</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
+      <c r="A137" s="4">
+        <v>40452</v>
+      </c>
+      <c r="B137" s="2">
+        <v>16960.864</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
+      <c r="A138" s="4">
+        <v>40544</v>
+      </c>
+      <c r="B138" s="2">
+        <v>16920.632</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="4">
+        <v>40634</v>
+      </c>
+      <c r="B139" s="2">
+        <v>17035.114</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
+      <c r="A140" s="4">
+        <v>40725</v>
+      </c>
+      <c r="B140" s="2">
+        <v>17031.313</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
+      <c r="A141" s="4">
+        <v>40817</v>
+      </c>
+      <c r="B141" s="2">
+        <v>17222.583</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
+      <c r="A142" s="4">
+        <v>40909</v>
+      </c>
+      <c r="B142" s="2">
+        <v>17367.01</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
+      <c r="A143" s="4">
+        <v>41000</v>
+      </c>
+      <c r="B143" s="2">
+        <v>17444.525</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="4">
+        <v>41091</v>
+      </c>
+      <c r="B144" s="2">
+        <v>17469.65</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" s="4">
+        <v>41183</v>
+      </c>
+      <c r="B145" s="2">
+        <v>17489.852</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" s="4">
+        <v>41275</v>
+      </c>
+      <c r="B146" s="2">
+        <v>17662.4</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" s="4">
+        <v>41365</v>
+      </c>
+      <c r="B147" s="2">
+        <v>17709.671</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" s="4">
+        <v>41456</v>
+      </c>
+      <c r="B148" s="2">
+        <v>17860.45</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="4">
+        <v>41548</v>
+      </c>
+      <c r="B149" s="2">
+        <v>18016.147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" s="4">
+        <v>41640</v>
+      </c>
+      <c r="B150" s="2">
+        <v>17953.974</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" s="4">
+        <v>41730</v>
+      </c>
+      <c r="B151" s="2">
+        <v>18185.911</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" s="4">
+        <v>41821</v>
+      </c>
+      <c r="B152" s="2">
+        <v>18406.941</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" s="4">
+        <v>41913</v>
+      </c>
+      <c r="B153" s="2">
+        <v>18500.031</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="4">
+        <v>42005</v>
+      </c>
+      <c r="B154" s="2">
+        <v>18666.621</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" s="4">
+        <v>42095</v>
+      </c>
+      <c r="B155" s="2">
+        <v>18782.243</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" s="4">
+        <v>42186</v>
+      </c>
+      <c r="B156" s="2">
+        <v>18857.418</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" s="4">
+        <v>42278</v>
+      </c>
+      <c r="B157" s="2">
+        <v>18892.206</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" s="4">
+        <v>42370</v>
+      </c>
+      <c r="B158" s="2">
+        <v>19001.69</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" s="4">
+        <v>42461</v>
+      </c>
+      <c r="B159" s="2">
+        <v>19062.709</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="4">
+        <v>42552</v>
+      </c>
+      <c r="B160" s="2">
+        <v>19197.938</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" s="4">
+        <v>42644</v>
+      </c>
+      <c r="B161" s="2">
+        <v>19304.352</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" s="4">
+        <v>42736</v>
+      </c>
+      <c r="B162" s="2">
+        <v>19398.343</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" s="4">
+        <v>42826</v>
+      </c>
+      <c r="B163" s="2">
+        <v>19506.949</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" s="4">
+        <v>42917</v>
+      </c>
+      <c r="B164" s="2">
+        <v>19660.766</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="4">
+        <v>43009</v>
+      </c>
+      <c r="B165" s="2">
+        <v>19882.352</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" s="4">
+        <v>43101</v>
+      </c>
+      <c r="B166" s="2">
+        <v>20044.077</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" s="4">
+        <v>43191</v>
+      </c>
+      <c r="B167" s="2">
+        <v>20150.476</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" s="4">
+        <v>43282</v>
+      </c>
+      <c r="B168" s="2">
+        <v>20276.154</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" s="4">
+        <v>43374</v>
+      </c>
+      <c r="B169" s="2">
+        <v>20304.874</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" s="4">
+        <v>43466</v>
+      </c>
+      <c r="B170" s="2">
+        <v>20431.641</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" s="4">
+        <v>43556</v>
+      </c>
+      <c r="B171" s="2">
+        <v>20602.275</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" s="4">
+        <v>43647</v>
+      </c>
+      <c r="B172" s="2">
+        <v>20843.322</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" s="4">
+        <v>43739</v>
+      </c>
+      <c r="B173" s="2">
+        <v>20985.448</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" s="4">
+        <v>43831</v>
+      </c>
+      <c r="B174" s="2">
+        <v>20693.238</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" s="4">
+        <v>43922</v>
+      </c>
+      <c r="B175" s="2">
+        <v>19056.617</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" s="4">
+        <v>44013</v>
+      </c>
+      <c r="B176" s="2">
+        <v>20548.793</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" s="4">
+        <v>44105</v>
+      </c>
+      <c r="B177" s="2">
+        <v>20771.691</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" s="4">
+        <v>44197</v>
+      </c>
+      <c r="B178" s="2">
+        <v>21058.379</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" s="4">
+        <v>44287</v>
+      </c>
+      <c r="B179" s="2">
+        <v>21389.005</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" s="4">
+        <v>44378</v>
+      </c>
+      <c r="B180" s="2">
+        <v>21571.421</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" s="4">
+        <v>44470</v>
+      </c>
+      <c r="B181" s="2">
+        <v>21960.388</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" s="4">
+        <v>44562</v>
+      </c>
+      <c r="B182" s="2">
+        <v>21903.85</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" s="4">
+        <v>44652</v>
+      </c>
+      <c r="B183" s="2">
+        <v>21919.222</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" s="4">
+        <v>44743</v>
+      </c>
+      <c r="B184" s="2">
+        <v>22066.784</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" s="4">
+        <v>44835</v>
+      </c>
+      <c r="B185" s="2">
+        <v>22249.459</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" s="4">
+        <v>44927</v>
+      </c>
+      <c r="B186" s="2">
+        <v>22403.435</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" s="4">
+        <v>45017</v>
+      </c>
+      <c r="B187" s="2">
+        <v>22539.418</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" s="4">
+        <v>45108</v>
+      </c>
+      <c r="B188" s="2">
+        <v>22780.933</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" s="4">
+        <v>45200</v>
+      </c>
+      <c r="B189" s="2">
+        <v>22960.6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" s="4">
+        <v>45292</v>
+      </c>
+      <c r="B190" s="2">
+        <v>23053.545</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" s="4">
+        <v>45383</v>
+      </c>
+      <c r="B191" s="2">
+        <v>23223.906</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" s="4">
+        <v>45474</v>
+      </c>
+      <c r="B192" s="2">
+        <v>23400.294</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" s="4">
+        <v>45566</v>
+      </c>
+      <c r="B193" s="2">
+        <v>23542.349</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" s="4">
+        <v>45658</v>
+      </c>
+      <c r="B194" s="2">
+        <v>23512.717</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" s="4">
         <v>45748</v>
       </c>
-      <c r="B103" s="2">
+      <c r="B195" s="2">
         <v>23685.287</v>
       </c>
     </row>
